--- a/Annotations/Old/AStudyInScarlet.xlsx
+++ b/Annotations/Old/AStudyInScarlet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1956" windowHeight="13068" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1956" windowHeight="13068"/>
   </bookViews>
   <sheets>
     <sheet name="scarlet" sheetId="1" r:id="rId1"/>
@@ -1491,14 +1491,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.109375" style="1" customWidth="1"/>
@@ -1560,7 +1561,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.18109027022144875</v>
+        <v>0.26756869477091461</v>
       </c>
       <c r="B2" s="1">
         <v>93</v>
@@ -1584,7 +1585,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93774335479350968</v>
+        <v>0.16569929960296992</v>
       </c>
       <c r="B3" s="1">
         <v>157</v>
@@ -1608,7 +1609,7 @@
     <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84920180973162418</v>
+        <v>0.58492079164898336</v>
       </c>
       <c r="B4" s="1">
         <v>148</v>
@@ -1635,7 +1636,7 @@
     <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54865030312931373</v>
+        <v>0.78095739625795058</v>
       </c>
       <c r="B5" s="1">
         <v>174</v>
@@ -1656,7 +1657,7 @@
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64689256743992851</v>
+        <v>0.75474525019345762</v>
       </c>
       <c r="B6" s="1">
         <v>90</v>
@@ -1677,7 +1678,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8126467539471962E-2</v>
+        <v>7.6331049312359345E-2</v>
       </c>
       <c r="B7" s="1">
         <v>116</v>
@@ -1698,7 +1699,7 @@
     <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90616315792313662</v>
+        <v>0.52876243480583784</v>
       </c>
       <c r="B8" s="1">
         <v>66</v>
@@ -1725,7 +1726,7 @@
     <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19050091341164221</v>
+        <v>0.86728963211999044</v>
       </c>
       <c r="B9" s="1">
         <v>166</v>
@@ -1749,7 +1750,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8363238628349552E-2</v>
+        <v>0.30591116755889391</v>
       </c>
       <c r="B10" s="1">
         <v>189</v>
@@ -1776,7 +1777,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62494542379019136</v>
+        <v>0.59261253358112864</v>
       </c>
       <c r="B11" s="1">
         <v>51</v>
@@ -1800,7 +1801,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8601808042661645</v>
+        <v>0.8655335553250012</v>
       </c>
       <c r="B12" s="1">
         <v>161</v>
@@ -1824,7 +1825,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18919458118158694</v>
+        <v>0.81043339762757394</v>
       </c>
       <c r="B13" s="1">
         <v>47</v>
@@ -1851,7 +1852,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66953446969744113</v>
+        <v>0.54572822498141282</v>
       </c>
       <c r="B14" s="1">
         <v>44</v>
@@ -1875,7 +1876,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33124236714919186</v>
+        <v>0.79734685318420417</v>
       </c>
       <c r="B15" s="1">
         <v>123</v>
@@ -1896,7 +1897,7 @@
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29369368971612209</v>
+        <v>0.94025689129570389</v>
       </c>
       <c r="B16" s="1">
         <v>89</v>
@@ -1917,7 +1918,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52204554221106059</v>
+        <v>0.15456714723671494</v>
       </c>
       <c r="B17" s="1">
         <v>180</v>
@@ -1944,7 +1945,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39167391733323842</v>
+        <v>0.53355321086291707</v>
       </c>
       <c r="B18" s="1">
         <v>60</v>
@@ -1971,7 +1972,7 @@
     <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59354519078811852</v>
+        <v>6.1046645732116822E-3</v>
       </c>
       <c r="B19" s="1">
         <v>23</v>
@@ -1998,7 +1999,7 @@
     <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34003037207357467</v>
+        <v>0.48522076978384954</v>
       </c>
       <c r="B20" s="1">
         <v>21</v>
@@ -2019,7 +2020,7 @@
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32755078703971763</v>
+        <v>0.54930320105611363</v>
       </c>
       <c r="B21" s="1">
         <v>150</v>
@@ -2046,7 +2047,7 @@
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58571866332684208</v>
+        <v>0.92970762540935814</v>
       </c>
       <c r="B22" s="1">
         <v>69</v>
@@ -2067,7 +2068,7 @@
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95535357409731014</v>
+        <v>0.88348760263563531</v>
       </c>
       <c r="B23" s="1">
         <v>118</v>
@@ -2088,7 +2089,7 @@
     <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85685358452864113</v>
+        <v>0.86073835169073742</v>
       </c>
       <c r="B24" s="1">
         <v>91</v>
@@ -2112,7 +2113,7 @@
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9234766210589761</v>
+        <v>0.38860066899508394</v>
       </c>
       <c r="B25" s="1">
         <v>115</v>
@@ -2136,7 +2137,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15138316941666985</v>
+        <v>0.97464257255251552</v>
       </c>
       <c r="B26" s="1">
         <v>46</v>
@@ -2160,7 +2161,7 @@
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51312613962442266</v>
+        <v>0.76679493197084148</v>
       </c>
       <c r="B27" s="1">
         <v>28</v>
@@ -2181,7 +2182,7 @@
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1904596072299225</v>
+        <v>0.26985408476211936</v>
       </c>
       <c r="B28" s="1">
         <v>58</v>
@@ -2205,7 +2206,7 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27392411838631159</v>
+        <v>0.34151646950397119</v>
       </c>
       <c r="B29" s="1">
         <v>84</v>
@@ -2229,7 +2230,7 @@
     <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10681299754718454</v>
+        <v>0.7629569995929506</v>
       </c>
       <c r="B30" s="1">
         <v>7</v>
@@ -2253,7 +2254,7 @@
     <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84651488462747793</v>
+        <v>0.85947411355240377</v>
       </c>
       <c r="B31" s="1">
         <v>151</v>
@@ -2280,7 +2281,7 @@
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95427680921704106</v>
+        <v>0.70814429605162676</v>
       </c>
       <c r="B32" s="1">
         <v>71</v>
@@ -2304,7 +2305,7 @@
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74846793096951236</v>
+        <v>0.19514286691315075</v>
       </c>
       <c r="B33" s="1">
         <v>163</v>
@@ -2328,7 +2329,7 @@
     <row r="34" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.36383295207115929</v>
+        <v>0.61210154621676183</v>
       </c>
       <c r="B34" s="1">
         <v>74</v>
@@ -2355,7 +2356,7 @@
     <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15885537634901459</v>
+        <v>0.94502571975105631</v>
       </c>
       <c r="B35" s="1">
         <v>146</v>
@@ -2376,7 +2377,7 @@
     <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46239148706214683</v>
+        <v>0.65007415331543705</v>
       </c>
       <c r="B36" s="1">
         <v>109</v>
@@ -2403,7 +2404,7 @@
     <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10923733957817117</v>
+        <v>0.33264399868868466</v>
       </c>
       <c r="B37" s="1">
         <v>177</v>
@@ -2430,7 +2431,7 @@
     <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1315292585542358E-2</v>
+        <v>0.53105014305399822</v>
       </c>
       <c r="B38" s="1">
         <v>49</v>
@@ -2457,7 +2458,7 @@
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8120536453877465E-2</v>
+        <v>0.6487890377858907</v>
       </c>
       <c r="B39" s="1">
         <v>98</v>
@@ -2481,7 +2482,7 @@
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14592379513549747</v>
+        <v>0.16068525224645003</v>
       </c>
       <c r="B40" s="1">
         <v>141</v>
@@ -2505,7 +2506,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36016439832509273</v>
+        <v>0.10665020379043011</v>
       </c>
       <c r="B41" s="1">
         <v>133</v>
@@ -2529,7 +2530,7 @@
     <row r="42" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62068854921146643</v>
+        <v>3.1664694207177768E-2</v>
       </c>
       <c r="B42" s="1">
         <v>15</v>
@@ -2553,7 +2554,7 @@
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23167246840275557</v>
+        <v>0.84509160713675158</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -2577,7 +2578,7 @@
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84713724416291103</v>
+        <v>0.12929896428960808</v>
       </c>
       <c r="B44" s="1">
         <v>87</v>
@@ -2601,7 +2602,7 @@
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72596387757144432</v>
+        <v>0.12871458766645383</v>
       </c>
       <c r="B45" s="1">
         <v>95</v>
@@ -2625,7 +2626,7 @@
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71639925673156502</v>
+        <v>0.53759576958747379</v>
       </c>
       <c r="B46" s="1">
         <v>85</v>
@@ -2652,7 +2653,7 @@
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82474903216084339</v>
+        <v>0.52161716061471763</v>
       </c>
       <c r="B47" s="1">
         <v>100</v>
@@ -2679,7 +2680,7 @@
     <row r="48" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86981294134294318</v>
+        <v>0.44735570884496623</v>
       </c>
       <c r="B48" s="1">
         <v>13</v>
@@ -2703,7 +2704,7 @@
     <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95374800759600487</v>
+        <v>0.30056489775907336</v>
       </c>
       <c r="B49" s="1">
         <v>114</v>
@@ -2727,7 +2728,7 @@
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44484705649624823</v>
+        <v>0.39286891657276923</v>
       </c>
       <c r="B50" s="1">
         <v>182</v>
@@ -2748,7 +2749,7 @@
     <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45992442094191477</v>
+        <v>0.33862212549374138</v>
       </c>
       <c r="B51" s="1">
         <v>96</v>
@@ -2772,7 +2773,7 @@
     <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43307309050438425</v>
+        <v>0.63864454024222483</v>
       </c>
       <c r="B52" s="1">
         <v>53</v>
@@ -2796,7 +2797,7 @@
     <row r="53" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90891923667753571</v>
+        <v>0.35724053854459137</v>
       </c>
       <c r="B53" s="1">
         <v>63</v>
@@ -2820,7 +2821,7 @@
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99731480953505336</v>
+        <v>0.45622563263061122</v>
       </c>
       <c r="B54" s="1">
         <v>147</v>
@@ -2844,7 +2845,7 @@
     <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80585301520071317</v>
+        <v>0.78325662370185656</v>
       </c>
       <c r="B55" s="1">
         <v>173</v>
@@ -2871,7 +2872,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68613761413140006</v>
+        <v>0.85226009501501898</v>
       </c>
       <c r="B56" s="1">
         <v>31</v>
@@ -2892,7 +2893,7 @@
     <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47041139980429758</v>
+        <v>0.88096829789337416</v>
       </c>
       <c r="B57" s="1">
         <v>55</v>
@@ -2919,7 +2920,7 @@
     <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91343448695828722</v>
+        <v>0.44225276954729664</v>
       </c>
       <c r="B58" s="1">
         <v>178</v>
@@ -2949,7 +2950,7 @@
     <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42465431892270034</v>
+        <v>0.32924979044745495</v>
       </c>
       <c r="B59" s="1">
         <v>122</v>
@@ -2970,7 +2971,7 @@
     <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16059571805991135</v>
+        <v>0.59850820147936268</v>
       </c>
       <c r="B60" s="1">
         <v>12</v>
@@ -2994,7 +2995,7 @@
     <row r="61" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76220347198393956</v>
+        <v>0.6195065385524452</v>
       </c>
       <c r="B61" s="1">
         <v>137</v>
@@ -3018,7 +3019,7 @@
     <row r="62" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76861929961293018</v>
+        <v>0.50895621960823634</v>
       </c>
       <c r="B62" s="1">
         <v>39</v>
@@ -3039,7 +3040,7 @@
     <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64495791943602754</v>
+        <v>0.17292042076324077</v>
       </c>
       <c r="B63" s="1">
         <v>153</v>
@@ -3063,7 +3064,7 @@
     <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24843015372352761</v>
+        <v>0.34323375142760337</v>
       </c>
       <c r="B64" s="1">
         <v>38</v>
@@ -3087,7 +3088,7 @@
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4668667771800314E-2</v>
+        <v>1.8694331383956042E-2</v>
       </c>
       <c r="B65" s="1">
         <v>142</v>
@@ -3108,7 +3109,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>0.14930006101983928</v>
+        <v>0.42863447320261316</v>
       </c>
       <c r="B66" s="1">
         <v>56</v>
@@ -3132,7 +3133,7 @@
     <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2929738650994641</v>
+        <v>0.64048472234830489</v>
       </c>
       <c r="B67" s="1">
         <v>32</v>
@@ -3156,7 +3157,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9088999605126453E-2</v>
+        <v>0.1767256134705425</v>
       </c>
       <c r="B68" s="1">
         <v>76</v>
@@ -3177,7 +3178,7 @@
     <row r="69" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58526747691789027</v>
+        <v>0.90695850808421219</v>
       </c>
       <c r="B69" s="1">
         <v>127</v>
@@ -3198,7 +3199,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33610612965910891</v>
+        <v>0.82604249642705563</v>
       </c>
       <c r="B70" s="1">
         <v>144</v>
@@ -3225,7 +3226,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59450616083695051</v>
+        <v>0.30905460037723775</v>
       </c>
       <c r="B71" s="1">
         <v>25</v>
@@ -3249,7 +3250,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76314323210250201</v>
+        <v>0.80774815646597831</v>
       </c>
       <c r="B72" s="1">
         <v>57</v>
@@ -3273,7 +3274,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56534442514562078</v>
+        <v>0.52686128426325141</v>
       </c>
       <c r="B73" s="1">
         <v>184</v>
@@ -3297,7 +3298,7 @@
     <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77422829015719796</v>
+        <v>6.5532756766405575E-2</v>
       </c>
       <c r="B74" s="1">
         <v>139</v>
@@ -3324,7 +3325,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4291404619026178E-2</v>
+        <v>0.80906564206186171</v>
       </c>
       <c r="B75" s="1">
         <v>30</v>
@@ -3348,7 +3349,7 @@
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50410666793989489</v>
+        <v>0.9327582610690297</v>
       </c>
       <c r="B76" s="1">
         <v>149</v>
@@ -3372,7 +3373,7 @@
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49059516510532397</v>
+        <v>0.63160609899281195</v>
       </c>
       <c r="B77" s="1">
         <v>164</v>
@@ -3396,7 +3397,7 @@
     <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61622628879488062</v>
+        <v>0.63655066229817703</v>
       </c>
       <c r="B78" s="1">
         <v>117</v>
@@ -3417,7 +3418,7 @@
     <row r="79" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46818595774364935</v>
+        <v>0.6174294618582703</v>
       </c>
       <c r="B79" s="1">
         <v>14</v>
@@ -3441,7 +3442,7 @@
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69604767624899755</v>
+        <v>0.91244968537313376</v>
       </c>
       <c r="B80" s="1">
         <v>78</v>
@@ -3462,7 +3463,7 @@
     <row r="81" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85312954782816164</v>
+        <v>0.18921674710189451</v>
       </c>
       <c r="B81" s="1">
         <v>41</v>
@@ -3486,7 +3487,7 @@
     <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51890085128516938</v>
+        <v>0.34300446576283339</v>
       </c>
       <c r="B82" s="1">
         <v>102</v>
@@ -3510,7 +3511,7 @@
     <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30439082310486021</v>
+        <v>0.70238543211742643</v>
       </c>
       <c r="B83" s="1">
         <v>160</v>
@@ -3534,7 +3535,7 @@
     <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87071295341253963</v>
+        <v>0.69876375694351445</v>
       </c>
       <c r="B84" s="1">
         <v>83</v>
@@ -3555,7 +3556,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35114646650594028</v>
+        <v>0.84889651073937544</v>
       </c>
       <c r="B85" s="1">
         <v>183</v>
@@ -3576,7 +3577,7 @@
     <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7764677789727209</v>
+        <v>0.1922341196752716</v>
       </c>
       <c r="B86" s="1">
         <v>192</v>
@@ -3600,7 +3601,7 @@
     <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58067149231803017</v>
+        <v>0.25627287455983505</v>
       </c>
       <c r="B87" s="1">
         <v>191</v>
@@ -3621,7 +3622,7 @@
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48053082472905406</v>
+        <v>9.2671588886541811E-2</v>
       </c>
       <c r="B88" s="1">
         <v>136</v>
@@ -3642,7 +3643,7 @@
     <row r="89" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23185927711290055</v>
+        <v>0.32547296044415008</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -3666,7 +3667,7 @@
     <row r="90" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97513362864757103</v>
+        <v>5.8570333268042618E-2</v>
       </c>
       <c r="B90" s="1">
         <v>43</v>
@@ -3696,7 +3697,7 @@
     <row r="91" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92709199965182343</v>
+        <v>0.49113166929539254</v>
       </c>
       <c r="B91" s="1">
         <v>10</v>
@@ -3723,7 +3724,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7.382311519591267E-2</v>
+        <v>0.6067405313482015</v>
       </c>
       <c r="B92" s="1">
         <v>82</v>
@@ -3750,7 +3751,7 @@
     <row r="93" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15437095188764316</v>
+        <v>1.7411164941013024E-2</v>
       </c>
       <c r="B93" s="1">
         <v>107</v>
@@ -3774,7 +3775,7 @@
     <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25760494708574799</v>
+        <v>0.90141213184923841</v>
       </c>
       <c r="B94" s="1">
         <v>106</v>
@@ -3798,7 +3799,7 @@
     <row r="95" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22022348736349318</v>
+        <v>0.94889086470627915</v>
       </c>
       <c r="B95" s="1">
         <v>138</v>
@@ -3822,7 +3823,7 @@
     <row r="96" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73311021588947334</v>
+        <v>0.94694736547291913</v>
       </c>
       <c r="B96" s="1">
         <v>105</v>
@@ -3849,7 +3850,7 @@
     <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62039549808781536</v>
+        <v>0.37912310274180239</v>
       </c>
       <c r="B97" s="1">
         <v>77</v>
@@ -3870,7 +3871,7 @@
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" ref="A98:A129" ca="1" si="3">RAND()</f>
-        <v>0.12365952483641629</v>
+        <v>0.54724282418542558</v>
       </c>
       <c r="B98" s="1">
         <v>188</v>
@@ -3897,7 +3898,7 @@
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2823689133717009E-2</v>
+        <v>0.53651745959995034</v>
       </c>
       <c r="B99" s="1">
         <v>45</v>
@@ -3924,7 +3925,7 @@
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68327184547389674</v>
+        <v>0.65896203025523281</v>
       </c>
       <c r="B100" s="1">
         <v>92</v>
@@ -3948,7 +3949,7 @@
     <row r="101" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66252522115554624</v>
+        <v>0.81304508510085804</v>
       </c>
       <c r="B101" s="1">
         <v>37</v>
@@ -3969,7 +3970,7 @@
     <row r="102" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10479918047591319</v>
+        <v>0.69197180699001681</v>
       </c>
       <c r="B102" s="1">
         <v>111</v>
@@ -3993,7 +3994,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75022586330332686</v>
+        <v>0.84621808547925592</v>
       </c>
       <c r="B103" s="1">
         <v>134</v>
@@ -4014,7 +4015,7 @@
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5249923279304135</v>
+        <v>4.151618869600604E-2</v>
       </c>
       <c r="B104" s="1">
         <v>54</v>
@@ -4038,7 +4039,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36288853419496447</v>
+        <v>0.75160666533077813</v>
       </c>
       <c r="B105" s="1">
         <v>181</v>
@@ -4062,7 +4063,7 @@
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1587405794713908E-2</v>
+        <v>0.5537778500397087</v>
       </c>
       <c r="B106" s="1">
         <v>171</v>
@@ -4086,7 +4087,7 @@
     <row r="107" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87933560771973762</v>
+        <v>0.54166264293512367</v>
       </c>
       <c r="B107" s="1">
         <v>88</v>
@@ -4107,7 +4108,7 @@
     <row r="108" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54929376997393364</v>
+        <v>0.20392769867445126</v>
       </c>
       <c r="B108" s="1">
         <v>152</v>
@@ -4134,7 +4135,7 @@
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12914238228069175</v>
+        <v>0.48745657792842223</v>
       </c>
       <c r="B109" s="1">
         <v>126</v>
@@ -4155,7 +4156,7 @@
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19697865882172916</v>
+        <v>6.4033373347028966E-2</v>
       </c>
       <c r="B110" s="1">
         <v>176</v>
@@ -4182,7 +4183,7 @@
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2940469933994501E-2</v>
+        <v>0.84316960769525195</v>
       </c>
       <c r="B111" s="1">
         <v>33</v>
@@ -4203,7 +4204,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83822299592428151</v>
+        <v>3.4753344991059198E-2</v>
       </c>
       <c r="B112" s="1">
         <v>101</v>
@@ -4227,7 +4228,7 @@
     <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14517309552221602</v>
+        <v>0.99468620727064783</v>
       </c>
       <c r="B113" s="1">
         <v>68</v>
@@ -4254,7 +4255,7 @@
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39684600763771116</v>
+        <v>0.18839789905445403</v>
       </c>
       <c r="B114" s="1">
         <v>140</v>
@@ -4278,7 +4279,7 @@
     <row r="115" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7423541485194064</v>
+        <v>0.37042582515562283</v>
       </c>
       <c r="B115" s="1">
         <v>168</v>
@@ -4302,7 +4303,7 @@
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67573511249412566</v>
+        <v>0.86692113537216942</v>
       </c>
       <c r="B116" s="1">
         <v>125</v>
@@ -4323,7 +4324,7 @@
     <row r="117" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77387323893054971</v>
+        <v>0.6342248681134709</v>
       </c>
       <c r="B117" s="1">
         <v>9</v>
@@ -4347,7 +4348,7 @@
     <row r="118" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86734255497798174</v>
+        <v>0.97753809341646747</v>
       </c>
       <c r="B118" s="1">
         <v>11</v>
@@ -4371,7 +4372,7 @@
     <row r="119" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45515771619584133</v>
+        <v>0.82642562091903971</v>
       </c>
       <c r="B119" s="1">
         <v>6</v>
@@ -4395,7 +4396,7 @@
     <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66194296553974585</v>
+        <v>0.95473907934107727</v>
       </c>
       <c r="B120" s="1">
         <v>167</v>
@@ -4419,7 +4420,7 @@
     <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99488694058700267</v>
+        <v>0.76846151200749968</v>
       </c>
       <c r="B121" s="1">
         <v>67</v>
@@ -4443,7 +4444,7 @@
     <row r="122" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4075699123631833</v>
+        <v>0.70812424544174468</v>
       </c>
       <c r="B122" s="1">
         <v>172</v>
@@ -4467,7 +4468,7 @@
     <row r="123" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88572075900738356</v>
+        <v>0.62377364367179189</v>
       </c>
       <c r="B123" s="1">
         <v>64</v>
@@ -4494,7 +4495,7 @@
     <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30044424257327629</v>
+        <v>0.66267282028173002</v>
       </c>
       <c r="B124" s="1">
         <v>128</v>
@@ -4515,7 +4516,7 @@
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74547018244519569</v>
+        <v>0.89318168156118838</v>
       </c>
       <c r="B125" s="1">
         <v>120</v>
@@ -4539,7 +4540,7 @@
     <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7882165977697029E-2</v>
+        <v>0.47213404058594122</v>
       </c>
       <c r="B126" s="1">
         <v>94</v>
@@ -4566,7 +4567,7 @@
     <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3495607352824539</v>
+        <v>0.93680571023805859</v>
       </c>
       <c r="B127" s="1">
         <v>62</v>
@@ -4590,7 +4591,7 @@
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2128223903511137E-2</v>
+        <v>0.353827440416979</v>
       </c>
       <c r="B128" s="1">
         <v>158</v>
@@ -4614,7 +4615,7 @@
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66168069353469172</v>
+        <v>0.9689798034285082</v>
       </c>
       <c r="B129" s="1">
         <v>48</v>
@@ -4638,7 +4639,7 @@
     <row r="130" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" ref="A130:A161" ca="1" si="4">RAND()</f>
-        <v>0.3339237484951475</v>
+        <v>0.3160805491172537</v>
       </c>
       <c r="B130" s="1">
         <v>22</v>
@@ -4665,7 +4666,7 @@
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99920921297143794</v>
+        <v>0.44742090847219429</v>
       </c>
       <c r="B131" s="1">
         <v>35</v>
@@ -4686,7 +4687,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69842615019346799</v>
+        <v>0.91466223663490864</v>
       </c>
       <c r="B132" s="1">
         <v>29</v>
@@ -4713,7 +4714,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18114502179777292</v>
+        <v>0.5506155330785043</v>
       </c>
       <c r="B133" s="1">
         <v>119</v>
@@ -4737,7 +4738,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68519692140720889</v>
+        <v>0.73012549323010623</v>
       </c>
       <c r="B134" s="1">
         <v>113</v>
@@ -4758,7 +4759,7 @@
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41796381856378617</v>
+        <v>0.50355630503143434</v>
       </c>
       <c r="B135" s="1">
         <v>61</v>
@@ -4782,7 +4783,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93671397285195479</v>
+        <v>0.88273273271141861</v>
       </c>
       <c r="B136" s="1">
         <v>156</v>
@@ -4803,7 +4804,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98666033819165067</v>
+        <v>0.76683515416747516</v>
       </c>
       <c r="B137" s="1">
         <v>110</v>
@@ -4827,7 +4828,7 @@
     <row r="138" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.323663782965558E-2</v>
+        <v>0.87842373390936512</v>
       </c>
       <c r="B138" s="1">
         <v>17</v>
@@ -4851,7 +4852,7 @@
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5071897202523505E-2</v>
+        <v>0.38097478607811153</v>
       </c>
       <c r="B139" s="1">
         <v>179</v>
@@ -4875,7 +4876,7 @@
     <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48744655842703288</v>
+        <v>0.68828481776037909</v>
       </c>
       <c r="B140" s="1">
         <v>59</v>
@@ -4902,7 +4903,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6933132054188476E-2</v>
+        <v>7.7175814688031252E-2</v>
       </c>
       <c r="B141" s="1">
         <v>132</v>
@@ -4923,7 +4924,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83965374033423978</v>
+        <v>0.59618972227001021</v>
       </c>
       <c r="B142" s="1">
         <v>70</v>
@@ -4944,7 +4945,7 @@
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16048657388446053</v>
+        <v>0.99642110434000575</v>
       </c>
       <c r="B143" s="1">
         <v>187</v>
@@ -4968,7 +4969,7 @@
     <row r="144" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49490532089392247</v>
+        <v>8.8887772987501945E-2</v>
       </c>
       <c r="B144" s="1">
         <v>72</v>
@@ -4995,7 +4996,7 @@
     <row r="145" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90651841582347303</v>
+        <v>0.71637606353352878</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -5019,7 +5020,7 @@
     <row r="146" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81478123048246309</v>
+        <v>0.26218598535923376</v>
       </c>
       <c r="B146" s="1">
         <v>65</v>
@@ -5049,7 +5050,7 @@
     <row r="147" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77640404785100581</v>
+        <v>0.29667330351019883</v>
       </c>
       <c r="B147" s="1">
         <v>52</v>
@@ -5076,7 +5077,7 @@
     <row r="148" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11954156183013331</v>
+        <v>0.79834544327120749</v>
       </c>
       <c r="B148" s="1">
         <v>36</v>
@@ -5100,7 +5101,7 @@
     <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12794854191172211</v>
+        <v>0.33197314062204086</v>
       </c>
       <c r="B149" s="1">
         <v>26</v>
@@ -5124,7 +5125,7 @@
     <row r="150" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46825886250031012</v>
+        <v>0.33129277607300678</v>
       </c>
       <c r="B150" s="1">
         <v>2</v>
@@ -5148,7 +5149,7 @@
     <row r="151" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13159251368619984</v>
+        <v>0.35701792139028965</v>
       </c>
       <c r="B151" s="1">
         <v>5</v>
@@ -5172,7 +5173,7 @@
     <row r="152" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91168902769953708</v>
+        <v>0.91611037381655047</v>
       </c>
       <c r="B152" s="1">
         <v>145</v>
@@ -5196,7 +5197,7 @@
     <row r="153" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32650943945097666</v>
+        <v>0.37475746390453157</v>
       </c>
       <c r="B153" s="1">
         <v>86</v>
@@ -5220,7 +5221,7 @@
     <row r="154" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66830652695844928</v>
+        <v>0.81228081554010134</v>
       </c>
       <c r="B154" s="1">
         <v>131</v>
@@ -5241,7 +5242,7 @@
     <row r="155" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87710406513601413</v>
+        <v>4.0262428317583532E-2</v>
       </c>
       <c r="B155" s="1">
         <v>34</v>
@@ -5268,7 +5269,7 @@
     <row r="156" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56232974922470513</v>
+        <v>0.3081992285258307</v>
       </c>
       <c r="B156" s="1">
         <v>8</v>
@@ -5292,7 +5293,7 @@
     <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53949031082753751</v>
+        <v>0.46602273942065564</v>
       </c>
       <c r="B157" s="1">
         <v>75</v>
@@ -5316,7 +5317,7 @@
     <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50349582799342985</v>
+        <v>6.6861086821194182E-2</v>
       </c>
       <c r="B158" s="1">
         <v>170</v>
@@ -5340,7 +5341,7 @@
     <row r="159" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14430396334054219</v>
+        <v>0.49818187000341529</v>
       </c>
       <c r="B159" s="1">
         <v>19</v>
@@ -5364,7 +5365,7 @@
     <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64776230519923317</v>
+        <v>0.8422322484867687</v>
       </c>
       <c r="B160" s="1">
         <v>42</v>
@@ -5391,7 +5392,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62884460619283311</v>
+        <v>0.10541309222373563</v>
       </c>
       <c r="B161" s="1">
         <v>159</v>
@@ -5412,7 +5413,7 @@
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" ref="A162:A193" ca="1" si="5">RAND()</f>
-        <v>0.8847346788504441</v>
+        <v>0.70057226566202979</v>
       </c>
       <c r="B162" s="1">
         <v>162</v>
@@ -5436,7 +5437,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7627707243962456</v>
+        <v>0.14651360525485746</v>
       </c>
       <c r="B163" s="1">
         <v>121</v>
@@ -5460,7 +5461,7 @@
     <row r="164" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4774609525227036</v>
+        <v>0.1033666287909446</v>
       </c>
       <c r="B164" s="1">
         <v>129</v>
@@ -5481,7 +5482,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6913635230970463</v>
+        <v>0.8618336114235936</v>
       </c>
       <c r="B165" s="1">
         <v>80</v>
@@ -5502,7 +5503,7 @@
     <row r="166" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54131993255854205</v>
+        <v>7.3204325922315849E-3</v>
       </c>
       <c r="B166" s="1">
         <v>108</v>
@@ -5523,7 +5524,7 @@
     <row r="167" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7014017282873031E-2</v>
+        <v>0.55636370655678125</v>
       </c>
       <c r="B167" s="1">
         <v>79</v>
@@ -5544,7 +5545,7 @@
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34325576541783498</v>
+        <v>0.93535665182806904</v>
       </c>
       <c r="B168" s="1">
         <v>81</v>
@@ -5571,7 +5572,7 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85058341311584873</v>
+        <v>0.45423962654722772</v>
       </c>
       <c r="B169" s="1">
         <v>103</v>
@@ -5595,7 +5596,7 @@
     <row r="170" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64849503548395981</v>
+        <v>0.91235772178703001</v>
       </c>
       <c r="B170" s="1">
         <v>73</v>
@@ -5622,7 +5623,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12229807258395464</v>
+        <v>5.1000035967921242E-2</v>
       </c>
       <c r="B171" s="1">
         <v>155</v>
@@ -5649,7 +5650,7 @@
     <row r="172" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64829829158259744</v>
+        <v>9.8637548926171381E-2</v>
       </c>
       <c r="B172" s="1">
         <v>18</v>
@@ -5673,7 +5674,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11464864371421857</v>
+        <v>0.56117736896562309</v>
       </c>
       <c r="B173" s="1">
         <v>112</v>
@@ -5697,7 +5698,7 @@
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29546225621536137</v>
+        <v>0.14234216753975482</v>
       </c>
       <c r="B174" s="1">
         <v>143</v>
@@ -5721,7 +5722,7 @@
     <row r="175" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62745466575840214</v>
+        <v>8.2935596061434635E-2</v>
       </c>
       <c r="B175" s="1">
         <v>154</v>
@@ -5748,7 +5749,7 @@
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90755783762615161</v>
+        <v>0.53986662382742678</v>
       </c>
       <c r="B176" s="1">
         <v>130</v>
@@ -5772,7 +5773,7 @@
     <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90284486590057744</v>
+        <v>0.42965324740072075</v>
       </c>
       <c r="B177" s="1">
         <v>169</v>
@@ -5796,7 +5797,7 @@
     <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77501918739625153</v>
+        <v>0.40561612118122881</v>
       </c>
       <c r="B178" s="1">
         <v>135</v>
@@ -5817,7 +5818,7 @@
     <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14290840538452121</v>
+        <v>0.21407049635498399</v>
       </c>
       <c r="B179" s="1">
         <v>186</v>
@@ -5844,7 +5845,7 @@
     <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7091897765943367E-2</v>
+        <v>0.16987081211271349</v>
       </c>
       <c r="B180" s="1">
         <v>99</v>
@@ -5871,7 +5872,7 @@
     <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42856609161120351</v>
+        <v>0.32656480530790788</v>
       </c>
       <c r="B181" s="1">
         <v>104</v>
@@ -5892,7 +5893,7 @@
     <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1816924737308987</v>
+        <v>0.66750196598334144</v>
       </c>
       <c r="B182" s="1">
         <v>97</v>
@@ -5922,7 +5923,7 @@
     <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44971992276954131</v>
+        <v>0.30298344466005556</v>
       </c>
       <c r="B183" s="1">
         <v>40</v>
@@ -5949,7 +5950,7 @@
     <row r="184" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25614191816517318</v>
+        <v>0.35713349246277282</v>
       </c>
       <c r="B184" s="1">
         <v>50</v>
@@ -5976,7 +5977,7 @@
     <row r="185" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97746666229877222</v>
+        <v>0.72802949832425179</v>
       </c>
       <c r="B185" s="1">
         <v>20</v>
@@ -6003,7 +6004,7 @@
     <row r="186" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84069237333442282</v>
+        <v>0.56337490644998367</v>
       </c>
       <c r="B186" s="1">
         <v>16</v>
@@ -6027,7 +6028,7 @@
     <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98641237321145048</v>
+        <v>0.71264077380400548</v>
       </c>
       <c r="B187" s="1">
         <v>27</v>
@@ -6054,7 +6055,7 @@
     <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59722215339997997</v>
+        <v>0.2432348768870658</v>
       </c>
       <c r="B188" s="1">
         <v>190</v>
@@ -6084,7 +6085,7 @@
     <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67062616587946067</v>
+        <v>8.7132295956770744E-2</v>
       </c>
       <c r="B189" s="1">
         <v>175</v>
@@ -6108,7 +6109,7 @@
     <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85558674236882137</v>
+        <v>0.80547586297918539</v>
       </c>
       <c r="B190" s="1">
         <v>185</v>
@@ -6129,7 +6130,7 @@
     <row r="191" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81230929509618643</v>
+        <v>0.26038981344147916</v>
       </c>
       <c r="B191" s="1">
         <v>24</v>
@@ -6153,7 +6154,7 @@
     <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86549244571021244</v>
+        <v>0.83842676376737613</v>
       </c>
       <c r="B192" s="1">
         <v>165</v>
@@ -6174,7 +6175,7 @@
     <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81545297857710297</v>
+        <v>0.36117049929884892</v>
       </c>
       <c r="B193" s="1">
         <v>124</v>
@@ -6276,7 +6277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+    <sheetView topLeftCell="A179" workbookViewId="0">
       <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
